--- a/Updated_PondBat_EnvirVars.xlsx
+++ b/Updated_PondBat_EnvirVars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam.bruce/Desktop/Wildlife_Ecology/Bat_Paper/BIOL345_BATPAPER_ANALYSIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A43FD9-1E12-A84D-B7C3-0B51831BE5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59C8501-0B32-A742-AB77-0403D3E53738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="26660" windowHeight="16400" xr2:uid="{91E77FBB-AE66-4264-953E-089B84225B86}"/>
+    <workbookView xWindow="7220" yWindow="4980" windowWidth="26660" windowHeight="16400" xr2:uid="{91E77FBB-AE66-4264-953E-089B84225B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Pond</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>*Individual Species Recorded Activity Follow for Each Night/Pond</t>
+  </si>
+  <si>
+    <t>PERSUB</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,7 +652,9 @@
       <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="1"/>

--- a/Updated_PondBat_EnvirVars.xlsx
+++ b/Updated_PondBat_EnvirVars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam.bruce/Desktop/Wildlife_Ecology/Bat_Paper/BIOL345_BATPAPER_ANALYSIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59C8501-0B32-A742-AB77-0403D3E53738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F917208-5CE4-3748-A682-80A03D08F241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="4980" windowWidth="26660" windowHeight="16400" xr2:uid="{91E77FBB-AE66-4264-953E-089B84225B86}"/>
+    <workbookView xWindow="3200" yWindow="720" windowWidth="26660" windowHeight="16400" xr2:uid="{91E77FBB-AE66-4264-953E-089B84225B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1557,7 @@
         <v>471.9</v>
       </c>
       <c r="K14" s="2">
-        <v>276</v>
+        <v>2.76</v>
       </c>
       <c r="L14" s="2">
         <v>0.21</v>
@@ -1629,7 +1629,7 @@
         <v>471.9</v>
       </c>
       <c r="K15" s="2">
-        <v>276</v>
+        <v>2.76</v>
       </c>
       <c r="L15" s="2">
         <v>0.21</v>
@@ -1701,7 +1701,7 @@
         <v>471.9</v>
       </c>
       <c r="K16" s="2">
-        <v>276</v>
+        <v>2.76</v>
       </c>
       <c r="L16" s="2">
         <v>0.21</v>
@@ -1773,7 +1773,7 @@
         <v>471.9</v>
       </c>
       <c r="K17" s="2">
-        <v>276</v>
+        <v>2.76</v>
       </c>
       <c r="L17" s="2">
         <v>0.21</v>
